--- a/burndown/package_tracker_1 - sprint 2.xlsx
+++ b/burndown/package_tracker_1 - sprint 2.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cabohn/courses/csce361/scripts/local/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082872B8-167A-D44B-9906-1F6A2FB35FB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F1CD859-E50E-2243-9B81-C66A830E3B50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63560" yWindow="-7000" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51320" yWindow="-2200" windowWidth="27640" windowHeight="16940" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="14" r:id="rId1"/>
     <sheet name="Burndown - boards" sheetId="15" r:id="rId2"/>
     <sheet name="Burndown - open-closed" sheetId="16" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="123">
   <si>
     <t>Board Name</t>
   </si>
@@ -355,6 +355,42 @@
   </si>
   <si>
     <t>2019-12-11 18:43:21.406814+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 16:19:38.107213+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 16:19:38.107214+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 16:19:38.107241+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 16:19:38.107242+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 16:24:38.452313+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 16:24:38.452314+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 16:24:38.452347+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 16:24:38.452348+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 22:19:29.271999+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 22:19:29.272000+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 22:19:44.400999+00:00</t>
+  </si>
+  <si>
+    <t>2019-12-12 22:19:44.401000+00:00</t>
   </si>
 </sst>
 </file>
@@ -1014,10 +1050,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$B$21:$CY$21</c:f>
+              <c:f>data!$B$21:$DK$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>43803.354166666664</c:v>
                 </c:pt>
@@ -1322,6 +1358,42 @@
                   <c:v>43810.780104166668</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43811.930196759262</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43811.930196759262</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43811.93037037037</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43811.93037037037</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>43812.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -1329,10 +1401,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$B$22:$CY$22</c:f>
+              <c:f>data!$B$22:$DK$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -1637,6 +1709,42 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1677,10 +1785,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$B$21:$CY$21</c:f>
+              <c:f>data!$B$21:$DK$21</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>43803.354166666664</c:v>
                 </c:pt>
@@ -1985,6 +2093,42 @@
                   <c:v>43810.780104166668</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43811.930196759262</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43811.930196759262</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43811.93037037037</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43811.93037037037</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>43812.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -1992,10 +2136,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$B$23:$CY$23</c:f>
+              <c:f>data!$B$23:$DK$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2301,6 +2445,42 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2623,10 +2803,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$B$31:$CY$31</c:f>
+              <c:f>data!$B$31:$DK$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>43803.354166666664</c:v>
                 </c:pt>
@@ -2931,6 +3111,42 @@
                   <c:v>43810.780104166668</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43811.930196759262</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43811.930196759262</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43811.93037037037</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43811.93037037037</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>43812.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -2938,10 +3154,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$B$32:$CY$32</c:f>
+              <c:f>data!$B$32:$DK$32</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3246,6 +3462,42 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
@@ -3288,10 +3540,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>data!$B$31:$CY$31</c:f>
+              <c:f>data!$B$31:$DK$31</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yy\ h:mm</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>43803.354166666664</c:v>
                 </c:pt>
@@ -3596,6 +3848,42 @@
                   <c:v>43810.780104166668</c:v>
                 </c:pt>
                 <c:pt idx="101">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43811.680300925924</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>43811.68377314815</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>43811.930196759262</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>43811.930196759262</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>43811.93037037037</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>43811.93037037037</c:v>
+                </c:pt>
+                <c:pt idx="113">
                   <c:v>43812.25</c:v>
                 </c:pt>
               </c:numCache>
@@ -3603,10 +3891,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>data!$B$33:$CY$33</c:f>
+              <c:f>data!$B$33:$DK$33</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="102"/>
+                <c:ptCount val="114"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3912,6 +4200,42 @@
                 </c:pt>
                 <c:pt idx="101">
                   <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5246,7 +5570,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5257,7 +5581,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5627,10 +5951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DA36"/>
+  <dimension ref="A1:DK36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11:CY34"/>
+      <selection activeCell="DK34" sqref="DK34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5638,7 +5962,7 @@
     <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5946,10 +6270,46 @@
         <v>110</v>
       </c>
       <c r="CY1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>112</v>
+      </c>
+      <c r="DA1" t="s">
+        <v>113</v>
+      </c>
+      <c r="DB1" t="s">
+        <v>114</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>115</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>116</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>117</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>118</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>119</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>120</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>121</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>122</v>
+      </c>
+      <c r="DK1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6259,8 +6619,44 @@
       <c r="CY2">
         <v>2</v>
       </c>
+      <c r="CZ2">
+        <v>2</v>
+      </c>
+      <c r="DA2">
+        <v>2</v>
+      </c>
+      <c r="DB2">
+        <v>2</v>
+      </c>
+      <c r="DC2">
+        <v>2</v>
+      </c>
+      <c r="DD2">
+        <v>2</v>
+      </c>
+      <c r="DE2">
+        <v>2</v>
+      </c>
+      <c r="DF2">
+        <v>2</v>
+      </c>
+      <c r="DG2">
+        <v>2</v>
+      </c>
+      <c r="DH2">
+        <v>1</v>
+      </c>
+      <c r="DI2">
+        <v>1</v>
+      </c>
+      <c r="DJ2">
+        <v>0</v>
+      </c>
+      <c r="DK2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6570,8 +6966,44 @@
       <c r="CY3">
         <v>0</v>
       </c>
+      <c r="CZ3">
+        <v>0</v>
+      </c>
+      <c r="DA3">
+        <v>0</v>
+      </c>
+      <c r="DB3">
+        <v>0</v>
+      </c>
+      <c r="DC3">
+        <v>0</v>
+      </c>
+      <c r="DD3">
+        <v>0</v>
+      </c>
+      <c r="DE3">
+        <v>0</v>
+      </c>
+      <c r="DF3">
+        <v>0</v>
+      </c>
+      <c r="DG3">
+        <v>0</v>
+      </c>
+      <c r="DH3">
+        <v>0</v>
+      </c>
+      <c r="DI3">
+        <v>0</v>
+      </c>
+      <c r="DJ3">
+        <v>0</v>
+      </c>
+      <c r="DK3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -6881,8 +7313,44 @@
       <c r="CY4">
         <v>2</v>
       </c>
+      <c r="CZ4">
+        <v>2</v>
+      </c>
+      <c r="DA4">
+        <v>2</v>
+      </c>
+      <c r="DB4">
+        <v>1</v>
+      </c>
+      <c r="DC4">
+        <v>1</v>
+      </c>
+      <c r="DD4">
+        <v>1</v>
+      </c>
+      <c r="DE4">
+        <v>1</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DI4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -7192,8 +7660,44 @@
       <c r="CY5">
         <v>13</v>
       </c>
+      <c r="CZ5">
+        <v>14</v>
+      </c>
+      <c r="DA5">
+        <v>14</v>
+      </c>
+      <c r="DB5">
+        <v>14</v>
+      </c>
+      <c r="DC5">
+        <v>14</v>
+      </c>
+      <c r="DD5">
+        <v>15</v>
+      </c>
+      <c r="DE5">
+        <v>15</v>
+      </c>
+      <c r="DF5">
+        <v>15</v>
+      </c>
+      <c r="DG5">
+        <v>15</v>
+      </c>
+      <c r="DH5">
+        <v>15</v>
+      </c>
+      <c r="DI5">
+        <v>15</v>
+      </c>
+      <c r="DJ5">
+        <v>15</v>
+      </c>
+      <c r="DK5">
+        <v>15</v>
+      </c>
     </row>
-    <row r="6" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -7503,8 +8007,44 @@
       <c r="CY6">
         <v>12</v>
       </c>
+      <c r="CZ6">
+        <v>12</v>
+      </c>
+      <c r="DA6">
+        <v>12</v>
+      </c>
+      <c r="DB6">
+        <v>12</v>
+      </c>
+      <c r="DC6">
+        <v>12</v>
+      </c>
+      <c r="DD6">
+        <v>12</v>
+      </c>
+      <c r="DE6">
+        <v>12</v>
+      </c>
+      <c r="DF6">
+        <v>12</v>
+      </c>
+      <c r="DG6">
+        <v>12</v>
+      </c>
+      <c r="DH6">
+        <v>13</v>
+      </c>
+      <c r="DI6">
+        <v>13</v>
+      </c>
+      <c r="DJ6">
+        <v>14</v>
+      </c>
+      <c r="DK6">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A11" t="str">
         <f>A1</f>
         <v>Board Name</v>
@@ -7915,1668 +8455,1906 @@
       </c>
       <c r="CY11" s="1">
         <f t="shared" si="2"/>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="CZ11" s="1">
+        <f t="shared" ref="CZ11:DK11" si="3">DATEVALUE(LEFT(CZ1,10))+TIMEVALUE(MID(CZ1,12,8))+(LEFT(RIGHT(CZ1,6),3)+RIGHT(CZ1,2)/60)/24</f>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="DA11" s="1">
+        <f t="shared" si="3"/>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="DB11" s="1">
+        <f t="shared" si="3"/>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="DC11" s="1">
+        <f t="shared" si="3"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DD11" s="1">
+        <f t="shared" si="3"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DE11" s="1">
+        <f t="shared" si="3"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DF11" s="1">
+        <f t="shared" si="3"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DG11" s="1">
+        <f t="shared" si="3"/>
+        <v>43811.930196759262</v>
+      </c>
+      <c r="DH11" s="1">
+        <f t="shared" si="3"/>
+        <v>43811.930196759262</v>
+      </c>
+      <c r="DI11" s="1">
+        <f t="shared" si="3"/>
+        <v>43811.93037037037</v>
+      </c>
+      <c r="DJ11" s="1">
+        <f t="shared" si="3"/>
+        <v>43811.93037037037</v>
+      </c>
+      <c r="DK11" s="1">
+        <f t="shared" si="3"/>
         <v>43812.25</v>
       </c>
-      <c r="CZ11" s="1"/>
-      <c r="DA11" s="1"/>
     </row>
-    <row r="12" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A12" t="str">
         <f>A3</f>
         <v>Sprint Backlog</v>
       </c>
       <c r="B12">
-        <f t="shared" ref="B12:B15" si="3">B3</f>
+        <f t="shared" ref="B12:B15" si="4">B3</f>
         <v>6</v>
       </c>
       <c r="C12">
-        <f t="shared" ref="C12:AA12" si="4">C3</f>
+        <f t="shared" ref="C12:AA12" si="5">C3</f>
         <v>6</v>
       </c>
       <c r="D12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="5"/>
+        <v>5</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" ref="AB12:CM12" si="6">AB3</f>
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AK12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AM12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AN12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AR12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AS12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AT12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AU12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AV12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AW12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AY12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="AZ12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BA12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BB12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BC12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BD12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BE12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BF12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BG12">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="BH12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BI12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BJ12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BK12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="BL12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BM12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BN12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BO12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BP12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BQ12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BR12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BS12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BT12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BU12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BV12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BW12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BX12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BY12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="BZ12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CA12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CB12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CC12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CD12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CE12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CF12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CG12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CH12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CI12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CJ12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CK12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CL12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CM12">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="CN12">
+        <f t="shared" ref="CN12:CY12" si="7">CN3</f>
+        <v>1</v>
+      </c>
+      <c r="CO12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="CP12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="CQ12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="CR12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="CS12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="CT12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="CU12">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="CV12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="CW12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="CX12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="CY12">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="CZ12">
+        <f t="shared" ref="CZ12:DK12" si="8">CZ3</f>
+        <v>0</v>
+      </c>
+      <c r="DA12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="DB12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="DC12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="DD12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="DE12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="DF12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="DG12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="DH12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="DI12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="DJ12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="DK12">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A13" t="str">
+        <f t="shared" ref="A13:A15" si="9">A4</f>
+        <v>Developing</v>
+      </c>
+      <c r="B13">
         <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:AA13" si="10">C4</f>
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="10"/>
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="S13">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" ref="AB13:CM13" si="11">AB4</f>
+        <v>7</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AK13">
+        <f t="shared" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="AL13">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AM13">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AN13">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AR13">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AS13">
+        <f t="shared" si="11"/>
+        <v>7</v>
+      </c>
+      <c r="AT13">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AU13">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AV13">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AW13">
+        <f t="shared" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AY13">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="AZ13">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="BA13">
+        <f t="shared" si="11"/>
+        <v>5</v>
+      </c>
+      <c r="BB13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BD13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BE13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BF13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BG13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BH13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BI13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BJ13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BK13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BL13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BM13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BN13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BO13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BP13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BQ13">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="BR13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BS13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BT13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BU13">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="BV13">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BW13">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BX13">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BY13">
+        <f t="shared" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="BZ13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CA13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CB13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CC13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CD13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CE13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CF13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CG13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CH13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CI13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CJ13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CK13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CL13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CM13">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="CN13">
+        <f t="shared" ref="CN13:CY13" si="12">CN4</f>
+        <v>1</v>
+      </c>
+      <c r="CO13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CP13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CQ13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CR13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CS13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CT13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CU13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CV13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CW13">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="CX13">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CY13">
+        <f t="shared" si="12"/>
+        <v>2</v>
+      </c>
+      <c r="CZ13">
+        <f t="shared" ref="CZ13:DK13" si="13">CZ4</f>
+        <v>2</v>
+      </c>
+      <c r="DA13">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="DB13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="DC13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="DD13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="DE13">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="DF13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DG13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DH13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DI13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DJ13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="DK13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A14" t="str">
+        <f t="shared" si="9"/>
+        <v>Done</v>
+      </c>
+      <c r="B14">
         <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="L12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="M12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="N12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="O12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="P12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="Q12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="R12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="T12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="U12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="V12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="4"/>
-        <v>6</v>
-      </c>
-      <c r="X12">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AA12">
-        <f t="shared" si="4"/>
-        <v>5</v>
-      </c>
-      <c r="AB12">
-        <f t="shared" ref="AB12:CM12" si="5">AB3</f>
-        <v>4</v>
-      </c>
-      <c r="AC12">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AD12">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AE12">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="AF12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AG12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AH12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AI12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AJ12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AK12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AM12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AN12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AO12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AP12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AQ12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AR12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AS12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AT12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AU12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AV12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AW12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AX12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AY12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="AZ12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BA12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BB12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BC12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BD12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BE12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BF12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BG12">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-      <c r="BH12">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BI12">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BJ12">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BK12">
-        <f t="shared" si="5"/>
-        <v>2</v>
-      </c>
-      <c r="BL12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BM12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BN12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BO12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BP12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BQ12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BR12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BS12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BT12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BU12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BV12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BW12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BX12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BY12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="BZ12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CA12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CB12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CC12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CD12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CE12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CF12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CG12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CH12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CI12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CJ12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CK12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CL12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CM12">
-        <f t="shared" si="5"/>
-        <v>1</v>
-      </c>
-      <c r="CN12">
-        <f t="shared" ref="CN12:CY12" si="6">CN3</f>
-        <v>1</v>
-      </c>
-      <c r="CO12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CP12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CQ12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CR12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CS12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CT12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CU12">
-        <f t="shared" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="CV12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CW12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CX12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="CY12">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:105" x14ac:dyDescent="0.2">
-      <c r="A13" t="str">
-        <f t="shared" ref="A13:A15" si="7">A4</f>
-        <v>Developing</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="C13">
-        <f t="shared" ref="C13:AA13" si="8">C4</f>
-        <v>8</v>
-      </c>
-      <c r="D13">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="L13">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="M13">
-        <f t="shared" si="8"/>
-        <v>8</v>
-      </c>
-      <c r="N13">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="O13">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="P13">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="Q13">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="R13">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="T13">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="U13">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="V13">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="X13">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AA13">
-        <f t="shared" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="AB13">
-        <f t="shared" ref="AB13:CM13" si="9">AB4</f>
-        <v>7</v>
-      </c>
-      <c r="AC13">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AD13">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AE13">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AF13">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AG13">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AH13">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="AI13">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="AJ13">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="AK13">
-        <f t="shared" si="9"/>
-        <v>9</v>
-      </c>
-      <c r="AL13">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AM13">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AN13">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AO13">
-        <f t="shared" si="9"/>
-        <v>8</v>
-      </c>
-      <c r="AP13">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AQ13">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AR13">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AS13">
-        <f t="shared" si="9"/>
-        <v>7</v>
-      </c>
-      <c r="AT13">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AU13">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AV13">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AW13">
-        <f t="shared" si="9"/>
-        <v>6</v>
-      </c>
-      <c r="AX13">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="AY13">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="AZ13">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="BA13">
-        <f t="shared" si="9"/>
-        <v>5</v>
-      </c>
-      <c r="BB13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BC13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BD13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BE13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BF13">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="BG13">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="BH13">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="BI13">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="BJ13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BK13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BL13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BM13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BN13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BO13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BP13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BQ13">
-        <f t="shared" si="9"/>
-        <v>4</v>
-      </c>
-      <c r="BR13">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="BS13">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="BT13">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="BU13">
-        <f t="shared" si="9"/>
-        <v>3</v>
-      </c>
-      <c r="BV13">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="BW13">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="BX13">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="BY13">
-        <f t="shared" si="9"/>
-        <v>2</v>
-      </c>
-      <c r="BZ13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CA13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CB13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CC13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CD13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CE13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CF13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CG13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CH13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CI13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CJ13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CK13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CL13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CM13">
-        <f t="shared" si="9"/>
-        <v>1</v>
-      </c>
-      <c r="CN13">
-        <f t="shared" ref="CN13:CY13" si="10">CN4</f>
-        <v>1</v>
-      </c>
-      <c r="CO13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="CP13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="CQ13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="CR13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="CS13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="CT13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="CU13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="CV13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="CW13">
-        <f t="shared" si="10"/>
-        <v>1</v>
-      </c>
-      <c r="CX13">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-      <c r="CY13">
-        <f t="shared" si="10"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:105" x14ac:dyDescent="0.2">
-      <c r="A14" t="str">
-        <f t="shared" si="7"/>
-        <v>Done</v>
-      </c>
-      <c r="B14">
-        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="C14">
-        <f t="shared" ref="C14:AA14" si="11">C5</f>
+        <f t="shared" ref="C14:AA14" si="14">C5</f>
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="F14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="G14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="H14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="I14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="J14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="K14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="L14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="M14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="N14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2</v>
       </c>
       <c r="P14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="R14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="S14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="T14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="U14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="V14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="W14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="X14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Y14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="Z14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AA14">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>3</v>
       </c>
       <c r="AB14">
-        <f t="shared" ref="AB14:CM14" si="12">AB5</f>
+        <f t="shared" ref="AB14:CM14" si="15">AB5</f>
         <v>3</v>
       </c>
       <c r="AC14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AD14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AE14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AG14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AH14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AI14">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>3</v>
       </c>
       <c r="AJ14">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AK14">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AL14">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AM14">
-        <f t="shared" si="12"/>
-        <v>4</v>
-      </c>
-      <c r="AN14">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AO14">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AP14">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AQ14">
-        <f t="shared" si="12"/>
-        <v>5</v>
-      </c>
-      <c r="AR14">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="AS14">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="AT14">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="AU14">
-        <f t="shared" si="12"/>
-        <v>6</v>
-      </c>
-      <c r="AV14">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AW14">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AX14">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AY14">
-        <f t="shared" si="12"/>
-        <v>7</v>
-      </c>
-      <c r="AZ14">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="BA14">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="BB14">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="BC14">
-        <f t="shared" si="12"/>
-        <v>8</v>
-      </c>
-      <c r="BD14">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BE14">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BF14">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BG14">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BH14">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BI14">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BJ14">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BK14">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BL14">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BM14">
-        <f t="shared" si="12"/>
-        <v>9</v>
-      </c>
-      <c r="BN14">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="BO14">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="BP14">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="BQ14">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="BR14">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="BS14">
-        <f t="shared" si="12"/>
-        <v>11</v>
-      </c>
-      <c r="BT14">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="BU14">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="BV14">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="BW14">
-        <f t="shared" si="12"/>
-        <v>12</v>
-      </c>
-      <c r="BX14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="BY14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="BZ14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CA14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CB14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CC14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CD14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CE14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CF14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CG14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CH14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CI14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CJ14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CK14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CL14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CM14">
-        <f t="shared" si="12"/>
-        <v>13</v>
-      </c>
-      <c r="CN14">
-        <f t="shared" ref="CN14:CY14" si="13">CN5</f>
-        <v>13</v>
-      </c>
-      <c r="CO14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="CP14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="CQ14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="CR14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="CS14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="CT14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="CU14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="CV14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="CW14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="CX14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-      <c r="CY14">
-        <f t="shared" si="13"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:105" x14ac:dyDescent="0.2">
-      <c r="A15" t="str">
-        <f t="shared" si="7"/>
-        <v>Closed</v>
-      </c>
-      <c r="B15">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <f t="shared" ref="C15:AA15" si="14">C6</f>
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="X15">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AA15">
-        <f t="shared" si="14"/>
-        <v>2</v>
-      </c>
-      <c r="AB15">
-        <f t="shared" ref="AB15:CM15" si="15">AB6</f>
-        <v>2</v>
-      </c>
-      <c r="AC15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AD15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AE15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AF15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AG15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AH15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AI15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AJ15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AK15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AL15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AM15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AN15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AO15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AP15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AQ15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AR15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AS15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AT15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AU15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AV15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AW15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AX15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AY15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="AZ15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BA15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BB15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BC15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BD15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BE15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BF15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BG15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BH15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BI15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BJ15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BK15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BL15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BM15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BN15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BO15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BP15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BQ15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BR15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BS15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BT15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BU15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BV15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BW15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BX15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BY15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="BZ15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="CA15">
-        <f t="shared" si="15"/>
-        <v>2</v>
-      </c>
-      <c r="CB15">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="CC15">
-        <f t="shared" si="15"/>
-        <v>3</v>
-      </c>
-      <c r="CD15">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="CE15">
+      <c r="AK14">
         <f t="shared" si="15"/>
         <v>4</v>
       </c>
-      <c r="CF15">
+      <c r="AL14">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AM14">
+        <f t="shared" si="15"/>
+        <v>4</v>
+      </c>
+      <c r="AN14">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="CG15">
+      <c r="AO14">
         <f t="shared" si="15"/>
         <v>5</v>
       </c>
-      <c r="CH15">
+      <c r="AP14">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="15"/>
+        <v>5</v>
+      </c>
+      <c r="AR14">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="CI15">
+      <c r="AS14">
         <f t="shared" si="15"/>
         <v>6</v>
       </c>
-      <c r="CJ15">
+      <c r="AT14">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AU14">
+        <f t="shared" si="15"/>
+        <v>6</v>
+      </c>
+      <c r="AV14">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="CK15">
+      <c r="AW14">
         <f t="shared" si="15"/>
         <v>7</v>
       </c>
-      <c r="CL15">
+      <c r="AX14">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AY14">
+        <f t="shared" si="15"/>
+        <v>7</v>
+      </c>
+      <c r="AZ14">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
-      <c r="CM15">
+      <c r="BA14">
         <f t="shared" si="15"/>
         <v>8</v>
       </c>
+      <c r="BB14">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="BC14">
+        <f t="shared" si="15"/>
+        <v>8</v>
+      </c>
+      <c r="BD14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BE14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BF14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BG14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BH14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BI14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BJ14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BK14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BL14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BM14">
+        <f t="shared" si="15"/>
+        <v>9</v>
+      </c>
+      <c r="BN14">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="BO14">
+        <f t="shared" si="15"/>
+        <v>10</v>
+      </c>
+      <c r="BP14">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="BQ14">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="BR14">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="BS14">
+        <f t="shared" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="BT14">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="BU14">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="BV14">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="BW14">
+        <f t="shared" si="15"/>
+        <v>12</v>
+      </c>
+      <c r="BX14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="BY14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="BZ14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CA14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CB14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CC14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CD14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CE14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CF14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CG14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CH14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CI14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CJ14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CK14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CL14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CM14">
+        <f t="shared" si="15"/>
+        <v>13</v>
+      </c>
+      <c r="CN14">
+        <f t="shared" ref="CN14:CY14" si="16">CN5</f>
+        <v>13</v>
+      </c>
+      <c r="CO14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CP14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CQ14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CR14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CS14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CT14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CU14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CV14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CW14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CX14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CY14">
+        <f t="shared" si="16"/>
+        <v>13</v>
+      </c>
+      <c r="CZ14">
+        <f t="shared" ref="CZ14:DK14" si="17">CZ5</f>
+        <v>14</v>
+      </c>
+      <c r="DA14">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="DB14">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="DC14">
+        <f t="shared" si="17"/>
+        <v>14</v>
+      </c>
+      <c r="DD14">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="DE14">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="DF14">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="DG14">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="DH14">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="DI14">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="DJ14">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+      <c r="DK14">
+        <f t="shared" si="17"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A15" t="str">
+        <f t="shared" si="9"/>
+        <v>Closed</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <f t="shared" ref="C15:AA15" si="18">C6</f>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="W15">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="X15">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Y15">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="Z15">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AA15">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+      <c r="AB15">
+        <f t="shared" ref="AB15:CM15" si="19">AB6</f>
+        <v>2</v>
+      </c>
+      <c r="AC15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AD15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AE15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AG15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AI15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AJ15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AK15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AL15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AM15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AN15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AY15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="AZ15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BA15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BB15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BC15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BD15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BE15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BF15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BG15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BH15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BI15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BJ15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BK15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BL15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BM15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BN15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BO15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BP15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BQ15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BR15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BS15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BT15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BU15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BV15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BW15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BX15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BY15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="BZ15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="CA15">
+        <f t="shared" si="19"/>
+        <v>2</v>
+      </c>
+      <c r="CB15">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="CC15">
+        <f t="shared" si="19"/>
+        <v>3</v>
+      </c>
+      <c r="CD15">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="CE15">
+        <f t="shared" si="19"/>
+        <v>4</v>
+      </c>
+      <c r="CF15">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="CG15">
+        <f t="shared" si="19"/>
+        <v>5</v>
+      </c>
+      <c r="CH15">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="CI15">
+        <f t="shared" si="19"/>
+        <v>6</v>
+      </c>
+      <c r="CJ15">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="CK15">
+        <f t="shared" si="19"/>
+        <v>7</v>
+      </c>
+      <c r="CL15">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="CM15">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
       <c r="CN15">
-        <f t="shared" ref="CN15:CY15" si="16">CN6</f>
+        <f t="shared" ref="CN15:CY15" si="20">CN6</f>
         <v>9</v>
       </c>
       <c r="CO15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="CP15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="CQ15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="CR15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="CS15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="CT15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="CU15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="CV15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="CW15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="CX15">
-        <f t="shared" si="16"/>
+        <f t="shared" si="20"/>
         <v>12</v>
       </c>
       <c r="CY15">
-        <f t="shared" si="16"/>
-        <v>12</v>
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="CZ15">
+        <f t="shared" ref="CZ15:DK15" si="21">CZ6</f>
+        <v>12</v>
+      </c>
+      <c r="DA15">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="DB15">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="DC15">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="DD15">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="DE15">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="DF15">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="DG15">
+        <f t="shared" si="21"/>
+        <v>12</v>
+      </c>
+      <c r="DH15">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="DI15">
+        <f t="shared" si="21"/>
+        <v>13</v>
+      </c>
+      <c r="DJ15">
+        <f t="shared" si="21"/>
+        <v>14</v>
+      </c>
+      <c r="DK15">
+        <f t="shared" si="21"/>
+        <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -9585,411 +10363,459 @@
         <v>-5</v>
       </c>
       <c r="C16">
-        <f t="shared" ref="C16:AA16" si="17">C2-SUM(C3:C5)</f>
+        <f t="shared" ref="C16:AA16" si="22">C2-SUM(C3:C5)</f>
         <v>-5</v>
       </c>
       <c r="D16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-4</v>
       </c>
       <c r="E16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-4</v>
       </c>
       <c r="F16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="G16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="H16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="I16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="J16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="K16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="L16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="M16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="N16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="O16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="P16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="R16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="S16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-1</v>
       </c>
       <c r="T16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="U16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="V16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="W16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="X16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="Y16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-2</v>
       </c>
       <c r="Z16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="AA16">
-        <f t="shared" si="17"/>
+        <f t="shared" si="22"/>
         <v>-3</v>
       </c>
       <c r="AB16">
-        <f t="shared" ref="AB16:CM16" si="18">AB2-SUM(AB3:AB5)</f>
+        <f t="shared" ref="AB16:CM16" si="23">AB2-SUM(AB3:AB5)</f>
         <v>-2</v>
       </c>
       <c r="AC16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-2</v>
       </c>
       <c r="AD16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AE16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AF16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-2</v>
       </c>
       <c r="AG16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-2</v>
       </c>
       <c r="AH16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AI16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AJ16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="AK16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="AL16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AM16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AN16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="AO16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="AP16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AR16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="AS16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="AT16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AU16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AV16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="AW16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="AX16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AY16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="AZ16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="BA16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="BB16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BC16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BD16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="BE16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="BF16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BG16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BH16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-2</v>
       </c>
       <c r="BI16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-2</v>
       </c>
       <c r="BJ16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BK16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BL16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-2</v>
       </c>
       <c r="BM16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-2</v>
       </c>
       <c r="BN16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BO16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BP16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="BQ16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="BR16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BS16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BT16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="BU16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="BV16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BW16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="BX16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="BY16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="BZ16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="CA16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-3</v>
       </c>
       <c r="CB16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="CC16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-4</v>
       </c>
       <c r="CD16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-5</v>
       </c>
       <c r="CE16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-5</v>
       </c>
       <c r="CF16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-6</v>
       </c>
       <c r="CG16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-6</v>
       </c>
       <c r="CH16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-7</v>
       </c>
       <c r="CI16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-7</v>
       </c>
       <c r="CJ16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-8</v>
       </c>
       <c r="CK16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-8</v>
       </c>
       <c r="CL16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-9</v>
       </c>
       <c r="CM16">
-        <f t="shared" si="18"/>
+        <f t="shared" si="23"/>
         <v>-9</v>
       </c>
       <c r="CN16">
-        <f t="shared" ref="CN16:CY16" si="19">CN2-SUM(CN3:CN5)</f>
+        <f t="shared" ref="CN16:CY16" si="24">CN2-SUM(CN3:CN5)</f>
         <v>-10</v>
       </c>
       <c r="CO16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-10</v>
       </c>
       <c r="CP16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-11</v>
       </c>
       <c r="CQ16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-11</v>
       </c>
       <c r="CR16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-12</v>
       </c>
       <c r="CS16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-12</v>
       </c>
       <c r="CT16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-13</v>
       </c>
       <c r="CU16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-13</v>
       </c>
       <c r="CV16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-12</v>
       </c>
       <c r="CW16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-12</v>
       </c>
       <c r="CX16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-13</v>
       </c>
       <c r="CY16">
-        <f t="shared" si="19"/>
+        <f t="shared" si="24"/>
         <v>-13</v>
       </c>
+      <c r="CZ16">
+        <f t="shared" ref="CZ16:DK16" si="25">CZ2-SUM(CZ3:CZ5)</f>
+        <v>-14</v>
+      </c>
+      <c r="DA16">
+        <f t="shared" si="25"/>
+        <v>-14</v>
+      </c>
+      <c r="DB16">
+        <f t="shared" si="25"/>
+        <v>-13</v>
+      </c>
+      <c r="DC16">
+        <f t="shared" si="25"/>
+        <v>-13</v>
+      </c>
+      <c r="DD16">
+        <f t="shared" si="25"/>
+        <v>-14</v>
+      </c>
+      <c r="DE16">
+        <f t="shared" si="25"/>
+        <v>-14</v>
+      </c>
+      <c r="DF16">
+        <f t="shared" si="25"/>
+        <v>-13</v>
+      </c>
+      <c r="DG16">
+        <f t="shared" si="25"/>
+        <v>-13</v>
+      </c>
+      <c r="DH16">
+        <f t="shared" si="25"/>
+        <v>-14</v>
+      </c>
+      <c r="DI16">
+        <f t="shared" si="25"/>
+        <v>-14</v>
+      </c>
+      <c r="DJ16">
+        <f t="shared" si="25"/>
+        <v>-15</v>
+      </c>
+      <c r="DK16">
+        <f t="shared" si="25"/>
+        <v>-15</v>
+      </c>
     </row>
-    <row r="21" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>A11</f>
         <v>Board Name</v>
@@ -9999,413 +10825,459 @@
         <v>43803.354166666664</v>
       </c>
       <c r="C21" s="2">
-        <f t="shared" ref="C21:AA21" si="20">C11</f>
+        <f t="shared" ref="C21:AA21" si="26">C11</f>
         <v>43803.556747685187</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43803.556747685187</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43803.558125000003</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43803.558125000003</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43803.560185185182</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43803.560185185182</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43803.561215277776</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43803.561215277776</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.561921296299</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.561921296299</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.561921296299</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.561921296299</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.624479166669</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.624479166669</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.624479166669</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.624479166669</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.811782407407</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.811782407407</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.871678240743</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43804.871678240743</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43805.621944444443</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43805.621944444443</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43805.621944444443</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="26"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" ref="AB21:CM21" si="21">AB11</f>
+        <f t="shared" ref="AB21:CM21" si="27">AB11</f>
         <v>43805.621944444443</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AK21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AL21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AN21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AO21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AP21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AQ21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AR21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AS21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AT21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AU21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AV21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AW21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AX21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AY21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.645439814813</v>
       </c>
       <c r="AZ21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.645439814813</v>
       </c>
       <c r="BA21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.645439814813</v>
       </c>
       <c r="BB21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.645439814813</v>
       </c>
       <c r="BC21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.648923611108</v>
       </c>
       <c r="BD21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.648923611108</v>
       </c>
       <c r="BE21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.648923611108</v>
       </c>
       <c r="BF21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.648923611108</v>
       </c>
       <c r="BG21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.683668981481</v>
       </c>
       <c r="BH21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.683668981481</v>
       </c>
       <c r="BI21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.683668981481</v>
       </c>
       <c r="BJ21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.683668981481</v>
       </c>
       <c r="BK21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BL21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BM21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BN21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BO21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BP21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BQ21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BR21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BS21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BT21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BU21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BV21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BW21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BX21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BY21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BZ21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.687141203707</v>
       </c>
       <c r="CA21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.887094907404</v>
       </c>
       <c r="CB21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.887094907404</v>
       </c>
       <c r="CC21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.887731481482</v>
       </c>
       <c r="CD21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.887731481482</v>
       </c>
       <c r="CE21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.889652777776</v>
       </c>
       <c r="CF21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.889652777776</v>
       </c>
       <c r="CG21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.891284722224</v>
       </c>
       <c r="CH21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.891284722224</v>
       </c>
       <c r="CI21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.893055555556</v>
       </c>
       <c r="CJ21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.893055555556</v>
       </c>
       <c r="CK21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.896585648145</v>
       </c>
       <c r="CL21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.896585648145</v>
       </c>
       <c r="CM21" s="2">
-        <f t="shared" si="21"/>
+        <f t="shared" si="27"/>
         <v>43808.93445601852</v>
       </c>
       <c r="CN21" s="2">
-        <f t="shared" ref="CN21:CY21" si="22">CN11</f>
+        <f t="shared" ref="CN21:CY21" si="28">CN11</f>
         <v>43808.93445601852</v>
       </c>
       <c r="CO21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43808.934675925928</v>
       </c>
       <c r="CP21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43808.934675925928</v>
       </c>
       <c r="CQ21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43808.935034722221</v>
       </c>
       <c r="CR21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43808.935034722221</v>
       </c>
       <c r="CS21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43808.935208333336</v>
       </c>
       <c r="CT21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43808.935208333336</v>
       </c>
       <c r="CU21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43810.780104166668</v>
       </c>
       <c r="CV21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43810.780104166668</v>
       </c>
       <c r="CW21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43810.780104166668</v>
       </c>
       <c r="CX21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
         <v>43810.780104166668</v>
       </c>
       <c r="CY21" s="2">
-        <f t="shared" si="22"/>
+        <f t="shared" si="28"/>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="CZ21" s="2">
+        <f t="shared" ref="CZ21:DK21" si="29">CZ11</f>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="DA21" s="2">
+        <f t="shared" si="29"/>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="DB21" s="2">
+        <f t="shared" si="29"/>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="DC21" s="2">
+        <f t="shared" si="29"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DD21" s="2">
+        <f t="shared" si="29"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DE21" s="2">
+        <f t="shared" si="29"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DF21" s="2">
+        <f t="shared" si="29"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DG21" s="2">
+        <f t="shared" si="29"/>
+        <v>43811.930196759262</v>
+      </c>
+      <c r="DH21" s="2">
+        <f t="shared" si="29"/>
+        <v>43811.930196759262</v>
+      </c>
+      <c r="DI21" s="2">
+        <f t="shared" si="29"/>
+        <v>43811.93037037037</v>
+      </c>
+      <c r="DJ21" s="2">
+        <f t="shared" si="29"/>
+        <v>43811.93037037037</v>
+      </c>
+      <c r="DK21" s="2">
+        <f t="shared" si="29"/>
         <v>43812.25</v>
       </c>
-      <c r="CZ21" s="2"/>
-      <c r="DA21" s="2"/>
     </row>
-    <row r="22" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>A12</f>
         <v>Sprint Backlog</v>
@@ -10415,413 +11287,461 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <f t="shared" ref="C22:AA22" si="23">C12</f>
+        <f t="shared" ref="C22:AA22" si="30">C12</f>
         <v>6</v>
       </c>
       <c r="D22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="E22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="F22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="G22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="H22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="I22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="J22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="K22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="L22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="M22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="N22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="O22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="P22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="R22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="S22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="T22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="U22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="V22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="W22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>6</v>
       </c>
       <c r="X22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="Y22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="Z22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="AA22">
-        <f t="shared" si="23"/>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="AB22">
-        <f t="shared" ref="AB22:CM22" si="24">AB12</f>
+        <f t="shared" ref="AB22:CM22" si="31">AB12</f>
         <v>4</v>
       </c>
       <c r="AC22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AD22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AE22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>4</v>
       </c>
       <c r="AF22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AG22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AH22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AI22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AJ22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AK22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AL22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AM22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AN22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AO22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AP22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AR22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AS22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AT22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AU22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AV22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AW22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AX22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AY22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="AZ22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="BA22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="BB22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="BC22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="BD22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="BE22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="BF22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="BG22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>3</v>
       </c>
       <c r="BH22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="BI22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="BJ22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="BK22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>2</v>
       </c>
       <c r="BL22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BM22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BN22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BO22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BP22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BQ22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BR22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BS22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BT22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BU22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BV22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BW22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BX22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BY22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="BZ22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CA22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CB22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CC22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CD22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CE22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CF22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CG22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CH22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CI22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CJ22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CK22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CL22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CM22">
-        <f t="shared" si="24"/>
+        <f t="shared" si="31"/>
         <v>1</v>
       </c>
       <c r="CN22">
-        <f t="shared" ref="CN22:CY22" si="25">CN12</f>
+        <f t="shared" ref="CN22:CY22" si="32">CN12</f>
         <v>1</v>
       </c>
       <c r="CO22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="CP22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="CQ22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="CR22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="CS22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="CT22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="CU22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="CV22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CW22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CX22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="CY22">
-        <f t="shared" si="25"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
+      <c r="CZ22">
+        <f t="shared" ref="CZ22:DK22" si="33">CZ12</f>
+        <v>0</v>
+      </c>
+      <c r="DA22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="DB22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="DC22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="DD22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="DE22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="DF22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="DG22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="DH22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="DI22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="DJ22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="DK22">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
-        <f t="shared" ref="A23:A26" si="26">A13</f>
+        <f t="shared" ref="A23:A26" si="34">A13</f>
         <v>Developing</v>
       </c>
       <c r="B23">
@@ -10829,1241 +11749,1385 @@
         <v>14</v>
       </c>
       <c r="C23">
-        <f t="shared" ref="C23:AA25" si="27">C13+C22</f>
+        <f t="shared" ref="C23:AA25" si="35">C13+C22</f>
         <v>14</v>
       </c>
       <c r="D23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="E23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="F23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="G23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="H23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="I23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="J23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="K23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="L23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="M23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="N23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
       <c r="O23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
       <c r="P23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>13</v>
       </c>
       <c r="R23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="S23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="T23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="U23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="V23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="W23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="X23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="Y23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>11</v>
       </c>
       <c r="Z23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="AA23">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="AB23">
-        <f t="shared" ref="AB23:CM23" si="28">AB13+AB22</f>
+        <f t="shared" ref="AB23:CM23" si="36">AB13+AB22</f>
         <v>11</v>
       </c>
       <c r="AC23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AD23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="AE23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="AF23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AG23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AH23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="AI23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="AJ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="AK23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>12</v>
       </c>
       <c r="AL23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AM23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AN23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AO23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>11</v>
       </c>
       <c r="AP23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="AR23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="AS23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="AT23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="AU23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="AV23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="AW23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="AX23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="AY23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="AZ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="BA23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="BB23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="BC23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="BD23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="BE23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>7</v>
       </c>
       <c r="BF23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="BG23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="BH23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BI23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BJ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="BK23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>6</v>
       </c>
       <c r="BL23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BM23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BN23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BO23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BP23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BQ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="BR23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="BS23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="BT23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="BU23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="BV23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="BW23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="BX23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="BY23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="BZ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CA23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CB23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CC23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CD23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CE23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CF23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CG23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CH23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CI23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CJ23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CK23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CL23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CM23">
-        <f t="shared" si="28"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="CN23">
-        <f t="shared" ref="CN23:CY23" si="29">CN13+CN22</f>
+        <f t="shared" ref="CN23:CY23" si="37">CN13+CN22</f>
         <v>2</v>
       </c>
       <c r="CO23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="CP23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="CQ23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="CR23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="CS23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="CT23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="CU23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="CV23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="CW23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="CX23">
-        <f t="shared" si="29"/>
+        <f t="shared" si="37"/>
         <v>2</v>
       </c>
       <c r="CY23">
-        <f t="shared" si="29"/>
-        <v>2</v>
+        <f t="shared" si="37"/>
+        <v>2</v>
+      </c>
+      <c r="CZ23">
+        <f t="shared" ref="CZ23:DK23" si="38">CZ13+CZ22</f>
+        <v>2</v>
+      </c>
+      <c r="DA23">
+        <f t="shared" si="38"/>
+        <v>2</v>
+      </c>
+      <c r="DB23">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="DC23">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="DD23">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="DE23">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
+      <c r="DF23">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DG23">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DH23">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DI23">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DJ23">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="DK23">
+        <f t="shared" si="38"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>Done</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B25" si="30">B14+B23</f>
+        <f t="shared" ref="B24:B25" si="39">B14+B23</f>
         <v>15</v>
       </c>
       <c r="C24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="D24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="E24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="F24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="G24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="H24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="I24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="J24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="K24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="L24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="M24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="N24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="O24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="P24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="R24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="S24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="T24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="U24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="V24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="W24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="X24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="Y24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="Z24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="AA24">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="AB24">
-        <f t="shared" ref="AB24:CM24" si="31">AB14+AB23</f>
+        <f t="shared" ref="AB24:CM24" si="40">AB14+AB23</f>
         <v>14</v>
       </c>
       <c r="AC24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="AD24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AE24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AF24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="AG24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="AH24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AI24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AJ24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="AK24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="AL24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AM24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AN24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="AO24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="AP24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AR24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="AS24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="AT24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AU24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AV24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="AW24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="AX24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AY24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="AZ24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="BA24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="BB24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BC24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BD24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="BE24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="BF24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BG24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BH24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="BI24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="BJ24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BK24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BL24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="BM24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="BN24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BO24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BP24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="BQ24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="BR24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BS24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BT24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="BU24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="BV24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BW24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="BX24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="BY24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>16</v>
       </c>
       <c r="BZ24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CA24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CB24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CC24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CD24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CE24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CF24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CG24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CH24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CI24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CJ24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CK24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CL24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CM24">
-        <f t="shared" si="31"/>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="CN24">
-        <f t="shared" ref="CN24:CY24" si="32">CN14+CN23</f>
+        <f t="shared" ref="CN24:CY24" si="41">CN14+CN23</f>
         <v>15</v>
       </c>
       <c r="CO24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="CP24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="CQ24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="CR24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="CS24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="CT24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="CU24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="CV24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="CW24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>14</v>
       </c>
       <c r="CX24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="CY24">
-        <f t="shared" si="32"/>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
+      <c r="CZ24">
+        <f t="shared" ref="CZ24:DK24" si="42">CZ14+CZ23</f>
+        <v>16</v>
+      </c>
+      <c r="DA24">
+        <f t="shared" si="42"/>
+        <v>16</v>
+      </c>
+      <c r="DB24">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
+      <c r="DC24">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
+      <c r="DD24">
+        <f t="shared" si="42"/>
+        <v>16</v>
+      </c>
+      <c r="DE24">
+        <f t="shared" si="42"/>
+        <v>16</v>
+      </c>
+      <c r="DF24">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
+      <c r="DG24">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
+      <c r="DH24">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
+      <c r="DI24">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
+      <c r="DJ24">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
+      <c r="DK24">
+        <f t="shared" si="42"/>
+        <v>15</v>
+      </c>
     </row>
-    <row r="25" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="34"/>
         <v>Closed</v>
       </c>
       <c r="B25">
-        <f t="shared" si="30"/>
+        <f t="shared" si="39"/>
         <v>15</v>
       </c>
       <c r="C25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="D25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="E25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="F25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="G25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="H25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="I25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="J25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="K25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="L25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="M25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="N25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="O25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="P25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="R25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="S25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>15</v>
       </c>
       <c r="T25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="U25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="V25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="W25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="X25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="Y25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>16</v>
       </c>
       <c r="Z25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="AA25">
-        <f t="shared" si="27"/>
+        <f t="shared" si="35"/>
         <v>17</v>
       </c>
       <c r="AB25">
-        <f t="shared" ref="AB25:CM25" si="33">AB15+AB24</f>
+        <f t="shared" ref="AB25:CM25" si="43">AB15+AB24</f>
         <v>16</v>
       </c>
       <c r="AC25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="AD25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AE25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AF25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="AG25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="AH25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AI25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AJ25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="AK25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="AL25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AM25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AN25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="AO25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="AP25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AR25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="AS25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="AT25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AU25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AV25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="AW25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="AX25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AY25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="AZ25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="BA25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="BB25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BC25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BD25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="BE25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="BF25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BG25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BH25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="BI25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="BJ25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BK25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BL25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="BM25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>16</v>
       </c>
       <c r="BN25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BO25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BP25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="BQ25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="BR25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BS25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BT25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="BU25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="BV25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BW25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="BX25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="BY25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="BZ25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="CA25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>17</v>
       </c>
       <c r="CB25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="CC25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>18</v>
       </c>
       <c r="CD25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>19</v>
       </c>
       <c r="CE25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>19</v>
       </c>
       <c r="CF25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="CG25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>20</v>
       </c>
       <c r="CH25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>21</v>
       </c>
       <c r="CI25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>21</v>
       </c>
       <c r="CJ25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>22</v>
       </c>
       <c r="CK25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>22</v>
       </c>
       <c r="CL25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>23</v>
       </c>
       <c r="CM25">
-        <f t="shared" si="33"/>
+        <f t="shared" si="43"/>
         <v>23</v>
       </c>
       <c r="CN25">
-        <f t="shared" ref="CN25:CY25" si="34">CN15+CN24</f>
+        <f t="shared" ref="CN25:CY25" si="44">CN15+CN24</f>
         <v>24</v>
       </c>
       <c r="CO25">
+        <f t="shared" si="44"/>
+        <v>24</v>
+      </c>
+      <c r="CP25">
+        <f t="shared" si="44"/>
+        <v>25</v>
+      </c>
+      <c r="CQ25">
+        <f t="shared" si="44"/>
+        <v>25</v>
+      </c>
+      <c r="CR25">
+        <f t="shared" si="44"/>
+        <v>26</v>
+      </c>
+      <c r="CS25">
+        <f t="shared" si="44"/>
+        <v>26</v>
+      </c>
+      <c r="CT25">
+        <f t="shared" si="44"/>
+        <v>27</v>
+      </c>
+      <c r="CU25">
+        <f t="shared" si="44"/>
+        <v>27</v>
+      </c>
+      <c r="CV25">
+        <f t="shared" si="44"/>
+        <v>26</v>
+      </c>
+      <c r="CW25">
+        <f t="shared" si="44"/>
+        <v>26</v>
+      </c>
+      <c r="CX25">
+        <f t="shared" si="44"/>
+        <v>27</v>
+      </c>
+      <c r="CY25">
+        <f t="shared" si="44"/>
+        <v>27</v>
+      </c>
+      <c r="CZ25">
+        <f t="shared" ref="CZ25:DK25" si="45">CZ15+CZ24</f>
+        <v>28</v>
+      </c>
+      <c r="DA25">
+        <f t="shared" si="45"/>
+        <v>28</v>
+      </c>
+      <c r="DB25">
+        <f t="shared" si="45"/>
+        <v>27</v>
+      </c>
+      <c r="DC25">
+        <f t="shared" si="45"/>
+        <v>27</v>
+      </c>
+      <c r="DD25">
+        <f t="shared" si="45"/>
+        <v>28</v>
+      </c>
+      <c r="DE25">
+        <f t="shared" si="45"/>
+        <v>28</v>
+      </c>
+      <c r="DF25">
+        <f t="shared" si="45"/>
+        <v>27</v>
+      </c>
+      <c r="DG25">
+        <f t="shared" si="45"/>
+        <v>27</v>
+      </c>
+      <c r="DH25">
+        <f t="shared" si="45"/>
+        <v>28</v>
+      </c>
+      <c r="DI25">
+        <f t="shared" si="45"/>
+        <v>28</v>
+      </c>
+      <c r="DJ25">
+        <f t="shared" si="45"/>
+        <v>29</v>
+      </c>
+      <c r="DK25">
+        <f t="shared" si="45"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:115" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
         <f t="shared" si="34"/>
-        <v>24</v>
-      </c>
-      <c r="CP25">
-        <f t="shared" si="34"/>
-        <v>25</v>
-      </c>
-      <c r="CQ25">
-        <f t="shared" si="34"/>
-        <v>25</v>
-      </c>
-      <c r="CR25">
-        <f t="shared" si="34"/>
-        <v>26</v>
-      </c>
-      <c r="CS25">
-        <f t="shared" si="34"/>
-        <v>26</v>
-      </c>
-      <c r="CT25">
-        <f t="shared" si="34"/>
-        <v>27</v>
-      </c>
-      <c r="CU25">
-        <f t="shared" si="34"/>
-        <v>27</v>
-      </c>
-      <c r="CV25">
-        <f t="shared" si="34"/>
-        <v>26</v>
-      </c>
-      <c r="CW25">
-        <f t="shared" si="34"/>
-        <v>26</v>
-      </c>
-      <c r="CX25">
-        <f t="shared" si="34"/>
-        <v>27</v>
-      </c>
-      <c r="CY25">
-        <f t="shared" si="34"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:105" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <f t="shared" si="26"/>
         <v>Opened, not labeled</v>
       </c>
       <c r="B26">
@@ -12071,411 +13135,459 @@
         <v>-5</v>
       </c>
       <c r="C26">
-        <f t="shared" ref="C26:AA26" si="35">C16</f>
+        <f t="shared" ref="C26:AA26" si="46">C16</f>
         <v>-5</v>
       </c>
       <c r="D26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-4</v>
       </c>
       <c r="E26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-4</v>
       </c>
       <c r="F26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-3</v>
       </c>
       <c r="G26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-3</v>
       </c>
       <c r="H26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-2</v>
       </c>
       <c r="I26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-2</v>
       </c>
       <c r="J26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="K26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="L26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-2</v>
       </c>
       <c r="M26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-2</v>
       </c>
       <c r="N26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="O26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="P26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-2</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-2</v>
       </c>
       <c r="R26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="S26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-1</v>
       </c>
       <c r="T26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-2</v>
       </c>
       <c r="U26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-2</v>
       </c>
       <c r="V26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-3</v>
       </c>
       <c r="W26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-3</v>
       </c>
       <c r="X26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-2</v>
       </c>
       <c r="Y26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-2</v>
       </c>
       <c r="Z26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-3</v>
       </c>
       <c r="AA26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="46"/>
         <v>-3</v>
       </c>
       <c r="AB26">
-        <f t="shared" ref="AB26:CM26" si="36">AB16</f>
+        <f t="shared" ref="AB26:CM26" si="47">AB16</f>
         <v>-2</v>
       </c>
       <c r="AC26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-2</v>
       </c>
       <c r="AD26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AE26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AF26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-2</v>
       </c>
       <c r="AG26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-2</v>
       </c>
       <c r="AH26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AI26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AJ26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="AK26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="AL26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AM26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AN26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="AO26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="AP26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AR26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="AS26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="AT26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AU26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AV26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="AW26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="AX26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AY26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="AZ26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="BA26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="BB26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BC26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BD26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="BE26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="BF26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BG26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BH26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-2</v>
       </c>
       <c r="BI26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-2</v>
       </c>
       <c r="BJ26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BK26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BL26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-2</v>
       </c>
       <c r="BM26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-2</v>
       </c>
       <c r="BN26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BO26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BP26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="BQ26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="BR26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BS26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BT26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="BU26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="BV26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BW26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="BX26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="BY26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="BZ26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="CA26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-3</v>
       </c>
       <c r="CB26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="CC26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-4</v>
       </c>
       <c r="CD26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-5</v>
       </c>
       <c r="CE26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-5</v>
       </c>
       <c r="CF26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-6</v>
       </c>
       <c r="CG26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-6</v>
       </c>
       <c r="CH26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-7</v>
       </c>
       <c r="CI26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-7</v>
       </c>
       <c r="CJ26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-8</v>
       </c>
       <c r="CK26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-8</v>
       </c>
       <c r="CL26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-9</v>
       </c>
       <c r="CM26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="47"/>
         <v>-9</v>
       </c>
       <c r="CN26">
-        <f t="shared" ref="CN26:CY26" si="37">CN16</f>
+        <f t="shared" ref="CN26:CY26" si="48">CN16</f>
         <v>-10</v>
       </c>
       <c r="CO26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-10</v>
       </c>
       <c r="CP26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-11</v>
       </c>
       <c r="CQ26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-11</v>
       </c>
       <c r="CR26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-12</v>
       </c>
       <c r="CS26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-12</v>
       </c>
       <c r="CT26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-13</v>
       </c>
       <c r="CU26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-13</v>
       </c>
       <c r="CV26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-12</v>
       </c>
       <c r="CW26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-12</v>
       </c>
       <c r="CX26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-13</v>
       </c>
       <c r="CY26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="48"/>
         <v>-13</v>
       </c>
+      <c r="CZ26">
+        <f t="shared" ref="CZ26:DK26" si="49">CZ16</f>
+        <v>-14</v>
+      </c>
+      <c r="DA26">
+        <f t="shared" si="49"/>
+        <v>-14</v>
+      </c>
+      <c r="DB26">
+        <f t="shared" si="49"/>
+        <v>-13</v>
+      </c>
+      <c r="DC26">
+        <f t="shared" si="49"/>
+        <v>-13</v>
+      </c>
+      <c r="DD26">
+        <f t="shared" si="49"/>
+        <v>-14</v>
+      </c>
+      <c r="DE26">
+        <f t="shared" si="49"/>
+        <v>-14</v>
+      </c>
+      <c r="DF26">
+        <f t="shared" si="49"/>
+        <v>-13</v>
+      </c>
+      <c r="DG26">
+        <f t="shared" si="49"/>
+        <v>-13</v>
+      </c>
+      <c r="DH26">
+        <f t="shared" si="49"/>
+        <v>-14</v>
+      </c>
+      <c r="DI26">
+        <f t="shared" si="49"/>
+        <v>-14</v>
+      </c>
+      <c r="DJ26">
+        <f t="shared" si="49"/>
+        <v>-15</v>
+      </c>
+      <c r="DK26">
+        <f t="shared" si="49"/>
+        <v>-15</v>
+      </c>
     </row>
-    <row r="31" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -12484,413 +13596,459 @@
         <v>43803.354166666664</v>
       </c>
       <c r="C31" s="1">
-        <f t="shared" ref="C31:AA31" si="38">C11</f>
+        <f t="shared" ref="C31:AA31" si="50">C11</f>
         <v>43803.556747685187</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43803.556747685187</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43803.558125000003</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43803.558125000003</v>
       </c>
       <c r="G31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43803.560185185182</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43803.560185185182</v>
       </c>
       <c r="I31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43803.561215277776</v>
       </c>
       <c r="J31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43803.561215277776</v>
       </c>
       <c r="K31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.561921296299</v>
       </c>
       <c r="L31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.561921296299</v>
       </c>
       <c r="M31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.561921296299</v>
       </c>
       <c r="N31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.561921296299</v>
       </c>
       <c r="O31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.624479166669</v>
       </c>
       <c r="P31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.624479166669</v>
       </c>
       <c r="Q31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.624479166669</v>
       </c>
       <c r="R31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.624479166669</v>
       </c>
       <c r="S31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.811782407407</v>
       </c>
       <c r="T31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.811782407407</v>
       </c>
       <c r="U31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.871678240743</v>
       </c>
       <c r="V31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43804.871678240743</v>
       </c>
       <c r="W31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43805.621944444443</v>
       </c>
       <c r="X31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43805.621944444443</v>
       </c>
       <c r="Y31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43805.621944444443</v>
       </c>
       <c r="Z31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AA31" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="50"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AB31" s="1">
-        <f t="shared" ref="AB31:CM31" si="39">AB11</f>
+        <f t="shared" ref="AB31:CM31" si="51">AB11</f>
         <v>43805.621944444443</v>
       </c>
       <c r="AC31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AD31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AE31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AF31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AG31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AH31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43805.621944444443</v>
       </c>
       <c r="AI31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AJ31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AK31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AL31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AM31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AN31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AO31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AP31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.638495370367</v>
       </c>
       <c r="AQ31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AR31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AS31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AT31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AU31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AV31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AW31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AX31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.641967592594</v>
       </c>
       <c r="AY31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.645439814813</v>
       </c>
       <c r="AZ31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.645439814813</v>
       </c>
       <c r="BA31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.645439814813</v>
       </c>
       <c r="BB31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.645439814813</v>
       </c>
       <c r="BC31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.648923611108</v>
       </c>
       <c r="BD31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.648923611108</v>
       </c>
       <c r="BE31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.648923611108</v>
       </c>
       <c r="BF31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.648923611108</v>
       </c>
       <c r="BG31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.683668981481</v>
       </c>
       <c r="BH31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.683668981481</v>
       </c>
       <c r="BI31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.683668981481</v>
       </c>
       <c r="BJ31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.683668981481</v>
       </c>
       <c r="BK31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BL31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BM31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BN31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BO31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BP31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BQ31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BR31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BS31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BT31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BU31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BV31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BW31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BX31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BY31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="BZ31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.687141203707</v>
       </c>
       <c r="CA31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.887094907404</v>
       </c>
       <c r="CB31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.887094907404</v>
       </c>
       <c r="CC31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.887731481482</v>
       </c>
       <c r="CD31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.887731481482</v>
       </c>
       <c r="CE31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.889652777776</v>
       </c>
       <c r="CF31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.889652777776</v>
       </c>
       <c r="CG31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.891284722224</v>
       </c>
       <c r="CH31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.891284722224</v>
       </c>
       <c r="CI31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.893055555556</v>
       </c>
       <c r="CJ31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.893055555556</v>
       </c>
       <c r="CK31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.896585648145</v>
       </c>
       <c r="CL31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.896585648145</v>
       </c>
       <c r="CM31" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="51"/>
         <v>43808.93445601852</v>
       </c>
       <c r="CN31" s="1">
-        <f t="shared" ref="CN31:CY31" si="40">CN11</f>
+        <f t="shared" ref="CN31:CY31" si="52">CN11</f>
         <v>43808.93445601852</v>
       </c>
       <c r="CO31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>43808.934675925928</v>
       </c>
       <c r="CP31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>43808.934675925928</v>
       </c>
       <c r="CQ31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>43808.935034722221</v>
       </c>
       <c r="CR31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>43808.935034722221</v>
       </c>
       <c r="CS31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>43808.935208333336</v>
       </c>
       <c r="CT31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>43808.935208333336</v>
       </c>
       <c r="CU31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>43810.780104166668</v>
       </c>
       <c r="CV31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>43810.780104166668</v>
       </c>
       <c r="CW31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>43810.780104166668</v>
       </c>
       <c r="CX31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
         <v>43810.780104166668</v>
       </c>
       <c r="CY31" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="52"/>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="CZ31" s="1">
+        <f t="shared" ref="CZ31:DK31" si="53">CZ11</f>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="DA31" s="1">
+        <f t="shared" si="53"/>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="DB31" s="1">
+        <f t="shared" si="53"/>
+        <v>43811.680300925924</v>
+      </c>
+      <c r="DC31" s="1">
+        <f t="shared" si="53"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DD31" s="1">
+        <f t="shared" si="53"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DE31" s="1">
+        <f t="shared" si="53"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DF31" s="1">
+        <f t="shared" si="53"/>
+        <v>43811.68377314815</v>
+      </c>
+      <c r="DG31" s="1">
+        <f t="shared" si="53"/>
+        <v>43811.930196759262</v>
+      </c>
+      <c r="DH31" s="1">
+        <f t="shared" si="53"/>
+        <v>43811.930196759262</v>
+      </c>
+      <c r="DI31" s="1">
+        <f t="shared" si="53"/>
+        <v>43811.93037037037</v>
+      </c>
+      <c r="DJ31" s="1">
+        <f t="shared" si="53"/>
+        <v>43811.93037037037</v>
+      </c>
+      <c r="DK31" s="1">
+        <f t="shared" si="53"/>
         <v>43812.25</v>
       </c>
-      <c r="CZ31" s="1"/>
-      <c r="DA31" s="1"/>
     </row>
-    <row r="32" spans="1:105" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>6</v>
       </c>
@@ -12899,411 +14057,459 @@
         <v>10</v>
       </c>
       <c r="C32">
-        <f t="shared" ref="C32:AA32" si="41">C2+C6</f>
+        <f t="shared" ref="C32:AA32" si="54">C2+C6</f>
         <v>10</v>
       </c>
       <c r="D32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="E32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>11</v>
       </c>
       <c r="F32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>12</v>
       </c>
       <c r="G32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>12</v>
       </c>
       <c r="H32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>13</v>
       </c>
       <c r="I32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>13</v>
       </c>
       <c r="J32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="K32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="L32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="M32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="N32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="O32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="P32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="R32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="S32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="T32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="U32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="V32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="W32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="X32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="Y32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="Z32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="AA32">
-        <f t="shared" si="41"/>
+        <f t="shared" si="54"/>
         <v>14</v>
       </c>
       <c r="AB32">
-        <f t="shared" ref="AB32:CM32" si="42">AB2+AB6</f>
+        <f t="shared" ref="AB32:CM32" si="55">AB2+AB6</f>
         <v>14</v>
       </c>
       <c r="AC32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AD32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AE32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AF32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AG32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AH32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AI32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AJ32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AK32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AL32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AM32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AN32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AO32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AP32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AQ32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AR32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AS32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AU32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AV32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AW32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AX32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AY32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="AZ32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BA32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BB32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BC32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BD32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BE32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BF32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BG32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BH32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BI32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BJ32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BK32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BL32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BM32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BN32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BO32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BP32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BQ32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BR32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BS32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BT32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BU32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BV32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BW32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BX32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BY32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="BZ32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CA32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CB32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CC32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CD32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CE32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CF32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CG32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CH32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CI32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CJ32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CK32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CL32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CM32">
-        <f t="shared" si="42"/>
+        <f t="shared" si="55"/>
         <v>14</v>
       </c>
       <c r="CN32">
-        <f t="shared" ref="CN32:CY32" si="43">CN2+CN6</f>
+        <f t="shared" ref="CN32:CY32" si="56">CN2+CN6</f>
         <v>14</v>
       </c>
       <c r="CO32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="CP32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="CQ32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="CR32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="CS32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="CT32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="CU32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="CV32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="CW32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="CX32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
         <v>14</v>
       </c>
       <c r="CY32">
-        <f t="shared" si="43"/>
+        <f t="shared" si="56"/>
+        <v>14</v>
+      </c>
+      <c r="CZ32">
+        <f t="shared" ref="CZ32:DK32" si="57">CZ2+CZ6</f>
+        <v>14</v>
+      </c>
+      <c r="DA32">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="DB32">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="DC32">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="DD32">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="DE32">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="DF32">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="DG32">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="DH32">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="DI32">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="DJ32">
+        <f t="shared" si="57"/>
+        <v>14</v>
+      </c>
+      <c r="DK32">
+        <f t="shared" si="57"/>
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:115" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -13312,411 +14518,459 @@
         <v>10</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:AA33" si="44">C2</f>
+        <f t="shared" ref="C33:AA33" si="58">C2</f>
         <v>10</v>
       </c>
       <c r="D33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>11</v>
       </c>
       <c r="E33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>11</v>
       </c>
       <c r="F33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>12</v>
       </c>
       <c r="G33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>12</v>
       </c>
       <c r="H33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>13</v>
       </c>
       <c r="I33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>13</v>
       </c>
       <c r="J33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="K33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="L33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="M33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="N33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="O33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="P33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="R33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="S33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="T33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>13</v>
       </c>
       <c r="U33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>13</v>
       </c>
       <c r="V33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>12</v>
       </c>
       <c r="W33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>12</v>
       </c>
       <c r="X33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>12</v>
       </c>
       <c r="Y33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>12</v>
       </c>
       <c r="Z33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>12</v>
       </c>
       <c r="AA33">
-        <f t="shared" si="44"/>
+        <f t="shared" si="58"/>
         <v>12</v>
       </c>
       <c r="AB33">
-        <f t="shared" ref="AB33:CM33" si="45">AB2</f>
+        <f t="shared" ref="AB33:CM33" si="59">AB2</f>
         <v>12</v>
       </c>
       <c r="AC33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AD33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AE33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AF33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AG33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AH33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AI33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AJ33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AK33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AL33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AM33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AN33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AO33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AP33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AQ33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AR33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AS33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AU33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AV33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AW33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AX33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AY33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="AZ33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BA33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BB33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BC33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BD33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BE33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BF33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BG33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BH33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BI33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BJ33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BK33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BL33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BM33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BN33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BO33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BP33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BQ33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BR33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BS33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BT33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BU33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BV33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BW33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BX33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BY33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="BZ33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="CA33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>12</v>
       </c>
       <c r="CB33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>11</v>
       </c>
       <c r="CC33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>11</v>
       </c>
       <c r="CD33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="CE33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>10</v>
       </c>
       <c r="CF33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="CG33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>9</v>
       </c>
       <c r="CH33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
       <c r="CI33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>8</v>
       </c>
       <c r="CJ33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>7</v>
       </c>
       <c r="CK33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>7</v>
       </c>
       <c r="CL33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="CM33">
-        <f t="shared" si="45"/>
+        <f t="shared" si="59"/>
         <v>6</v>
       </c>
       <c r="CN33">
-        <f t="shared" ref="CN33:CY33" si="46">CN2</f>
+        <f t="shared" ref="CN33:CY33" si="60">CN2</f>
         <v>5</v>
       </c>
       <c r="CO33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>5</v>
       </c>
       <c r="CP33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="CQ33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>4</v>
       </c>
       <c r="CR33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="CS33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>3</v>
       </c>
       <c r="CT33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="CU33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="CV33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="CW33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="CX33">
-        <f t="shared" si="46"/>
+        <f t="shared" si="60"/>
         <v>2</v>
       </c>
       <c r="CY33">
-        <f t="shared" si="46"/>
-        <v>2</v>
+        <f t="shared" si="60"/>
+        <v>2</v>
+      </c>
+      <c r="CZ33">
+        <f t="shared" ref="CZ33:DK33" si="61">CZ2</f>
+        <v>2</v>
+      </c>
+      <c r="DA33">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="DB33">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="DC33">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="DD33">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="DE33">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="DF33">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="DG33">
+        <f t="shared" si="61"/>
+        <v>2</v>
+      </c>
+      <c r="DH33">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="DI33">
+        <f t="shared" si="61"/>
+        <v>1</v>
+      </c>
+      <c r="DJ33">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+      <c r="DK33">
+        <f t="shared" si="61"/>
+        <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:103" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:115" x14ac:dyDescent="0.2">
       <c r="B36" s="3"/>
     </row>
   </sheetData>
